--- a/app/model/reportes/ReporteGeneralDetalle.xlsx
+++ b/app/model/reportes/ReporteGeneralDetalle.xlsx
@@ -10,37 +10,34 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$35:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$36:$D$36</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>REPORTE DE CALIFICACIÓN</t>
   </si>
   <si>
-    <t>901040792-4</t>
-  </si>
-  <si>
     <t>INGETRONIK</t>
   </si>
   <si>
-    <t>WHERE ALL IS POSIBLE</t>
+    <t>where all is posible</t>
   </si>
   <si>
     <t>CARTAGO</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>DARWIN AGRADO</t>
-  </si>
-  <si>
-    <t>COMO LE PARECIO EL SERVICIO</t>
+    <t>SEDE INGETRONIK</t>
+  </si>
+  <si>
+    <t>YISUS</t>
+  </si>
+  <si>
+    <t>¿ COMO LE PARECIO EL SERVICIO ?</t>
   </si>
   <si>
     <t>CALIFICACION</t>
@@ -52,6 +49,9 @@
     <t>MALO</t>
   </si>
   <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
     <t>BUENO</t>
   </si>
   <si>
@@ -76,13 +76,28 @@
     <t>FECHA DE CALIFICACIÓN</t>
   </si>
   <si>
-    <t>2019-10-15 15:48:28</t>
-  </si>
-  <si>
-    <t>2019-10-15 15:48:34</t>
-  </si>
-  <si>
-    <t>2019-10-15 15:48:44</t>
+    <t>2019-10-16 11:46:13</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:17</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:20</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:24</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:28</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:33</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:38</t>
+  </si>
+  <si>
+    <t>2019-10-16 11:46:43</t>
   </si>
 </sst>
 </file>
@@ -533,16 +548,16 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:E56"/>
+      <selection activeCell="A1" sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.705078" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="1.142578" bestFit="true" customWidth="true" style="0"/>
@@ -614,8 +629,8 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
+      <c r="A7" s="3">
+        <v>901040792</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -624,7 +639,7 @@
     </row>
     <row r="8" spans="1:26" customHeight="1" ht="20">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -633,7 +648,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -656,7 +671,7 @@
     </row>
     <row r="12" spans="1:26" customHeight="1" ht="20">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -672,7 +687,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -688,7 +703,7 @@
     </row>
     <row r="16" spans="1:26" customHeight="1" ht="20">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -704,7 +719,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -727,10 +742,10 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -738,10 +753,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -749,10 +764,10 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -760,19 +775,21 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6">
-        <v>18</v>
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -780,7 +797,9 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -800,94 +819,86 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:26" customHeight="1" ht="20">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
+    <row r="30" spans="1:26">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:26" customHeight="1" ht="20">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:26" customHeight="1" ht="20">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
+    <row r="33" spans="1:26">
+      <c r="A33" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:26" customHeight="1" ht="20">
+      <c r="A34" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -896,268 +907,133 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A35:D35"/>
+  <autoFilter ref="A36:D36"/>
   <mergeCells>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:D7"/>
@@ -1167,10 +1043,10 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
